--- a/biology/Mycologie/Roccellaceae/Roccellaceae.xlsx
+++ b/biology/Mycologie/Roccellaceae/Roccellaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Roccellaceae sont une famille surtout composée de champignons lichénisés (lichens) appartenant à l'ordre des Arthoniales. Très diversifiée, la famille comporte des espèces au thalle encroûtant ou fruticuleux, plus rarement des champignons lichénicoles, c'est-à-dire se développant sur des lichens. Les formes lichénisées sont associées à des algues vertes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Roccellaceae sont une famille surtout composée de champignons lichénisés (lichens) appartenant à l'ordre des Arthoniales. Très diversifiée, la famille comporte des espèces au thalle encroûtant ou fruticuleux, plus rarement des champignons lichénicoles, c'est-à-dire se développant sur des lichens. Les formes lichénisées sont associées à des algues vertes.
 Certaines espèces du genre Roccella sont parmi les très rares lichens à avoir reçu un nom vernaculaire générique en langue française en raison de leurs propriétés tinctoriales : ils sont désignés sous le nom d'orseilles.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa définition actuelle, la famille inclut les membres de l'ancienne famille des Opegraphaceae[1]. Les études de phylogénie moléculaire consacrées aux Arthoniales indiquant que plusieurs genres des Roccellaceae sont paraphylétiques, il est probable que la liste actuellement admise évolue dans l'avenir[2].
-D'après Outline of Ascomycota (2009)[3], cette famille est constituée des genres suivants :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa définition actuelle, la famille inclut les membres de l'ancienne famille des Opegraphaceae. Les études de phylogénie moléculaire consacrées aux Arthoniales indiquant que plusieurs genres des Roccellaceae sont paraphylétiques, il est probable que la liste actuellement admise évolue dans l'avenir.
+D'après Outline of Ascomycota (2009), cette famille est constituée des genres suivants :
 Ancistrosporella G. Thor
 Angiactis Aptroot &amp; Sparrius
 Bactrospora A. Massal.
